--- a/biology/Zoologie/Calocypha/Calocypha.xlsx
+++ b/biology/Zoologie/Calocypha/Calocypha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calocypha est un genre d'insectes odonates (libellules) du sous-ordre des Zygoptera (demoiselles) de la famille des Chlorocyphidae. 
 </t>
@@ -511,9 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Calocypha a été décrit par l'entomologiste britannique Frederick Charles Fraser en 1928 avec pour espèce type Rhinocypha laidlawi Fraser, 1924[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Calocypha a été décrit par l'entomologiste britannique Frederick Charles Fraser en 1928 avec pour espèce type Rhinocypha laidlawi Fraser, 1924.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>(en) Fraser, C. F. 1928. Indian dragon-flies. Parts xxix-xxx. Journal of the Bombay Natural History Society, 32: 450-459 [457].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(en) Fraser, C. F. 1928. Indian dragon-flies. Parts xxix-xxx. Journal of the Bombay Natural History Society, 32: 450-459 .</t>
         </is>
       </c>
     </row>
@@ -572,9 +588,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Ce genre ne comporte qu'une espèce[2],[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Ce genre ne comporte qu'une espèce,.
 Calocypha laidlawi (Fraser, 1924)</t>
         </is>
       </c>
